--- a/DASH-Test/DASH-youtube/Results.xlsx
+++ b/DASH-Test/DASH-youtube/Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maytrinh/Desktop/COSC6377-ComputerNetworks/DASH-Test/DASH-youtube/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1BEB8B-A173-DB44-846D-3AA046BBC863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F949EC-C23B-1740-81D9-6082E16D6DA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D4C4A2D6-4BA2-8649-8444-17403BC9EFFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>0ms</t>
   </si>
@@ -74,15 +75,54 @@
   <si>
     <t>PLR-15%</t>
   </si>
+  <si>
+    <t>Average Bitrate</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1920x1080@24 </t>
+  </si>
+  <si>
+    <t>1024 Kbps</t>
+  </si>
+  <si>
+    <t>854x480@24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1280x720@24 </t>
+  </si>
+  <si>
+    <t>2048 Kbps</t>
+  </si>
+  <si>
+    <t>3072 Kbps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,13 +145,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11683,11 +11727,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BE239B-5881-1442-8ACB-A432D5641191}">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -12358,6 +12408,18 @@
       <c r="D17">
         <v>2444</v>
       </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
       <c r="K17">
         <v>46566</v>
       </c>
@@ -12399,6 +12461,25 @@
       <c r="D18">
         <v>2444</v>
       </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <f>AVERAGE(L2:L207)</f>
+        <v>627.64077669902917</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(M2:M207)</f>
+        <v>1394.6504854368932</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(N2:N207)</f>
+        <v>2151.8446601941746</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(K2:K207)</f>
+        <v>73566.932038834944</v>
+      </c>
       <c r="K18">
         <v>46566</v>
       </c>
@@ -12481,6 +12562,18 @@
       <c r="D20">
         <v>2444</v>
       </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
       <c r="K20">
         <v>46566</v>
       </c>
@@ -12522,6 +12615,25 @@
       <c r="D21">
         <v>2444</v>
       </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE(A2:A207)</f>
+        <v>73566.932038834944</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(B2:B207)</f>
+        <v>11427.601941747573</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE(C2:C207)</f>
+        <v>20395.155339805824</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(D2:D207)</f>
+        <v>8183.7669902912621</v>
+      </c>
       <c r="K21">
         <v>46566</v>
       </c>
@@ -12604,6 +12716,21 @@
       <c r="D23">
         <v>2444</v>
       </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
       <c r="K23">
         <v>46566</v>
       </c>
@@ -12645,6 +12772,29 @@
       <c r="D24">
         <v>2444</v>
       </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGE(U2:U207)</f>
+        <v>73566.932038834944</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:J24" si="0">AVERAGE(V2:V207)</f>
+        <v>28401.684466019418</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>23842.577669902912</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>16042.592233009709</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>6548.3592233009713</v>
+      </c>
       <c r="K24">
         <v>46566</v>
       </c>
@@ -12768,6 +12918,18 @@
       <c r="D27">
         <v>2444</v>
       </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
       <c r="K27">
         <v>46566</v>
       </c>
@@ -12809,6 +12971,21 @@
       <c r="D28">
         <v>2444</v>
       </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K28">
         <v>46566</v>
       </c>
@@ -12891,6 +13068,18 @@
       <c r="D30">
         <v>4148</v>
       </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
       <c r="K30">
         <v>46566</v>
       </c>
@@ -12932,6 +13121,12 @@
       <c r="D31">
         <v>4148</v>
       </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K31">
         <v>46566</v>
       </c>
@@ -13014,6 +13209,21 @@
       <c r="D33">
         <v>4148</v>
       </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
       <c r="K33">
         <v>46566</v>
       </c>
@@ -13055,6 +13265,15 @@
       <c r="D34">
         <v>6120</v>
       </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K34">
         <v>46566</v>
       </c>
@@ -20177,8 +20396,2974 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F28" r:id="rId1" xr:uid="{D94F5306-539E-F84D-AAE7-90626428FF0C}"/>
+    <hyperlink ref="G28" r:id="rId2" xr:uid="{7B6F5927-706C-D54E-AD22-419D9B63C801}"/>
+    <hyperlink ref="H28" r:id="rId3" xr:uid="{AF220CA6-4E07-3B4A-81CB-4BE0C791BE26}"/>
+    <hyperlink ref="I28" r:id="rId4" xr:uid="{83423FF6-6890-404E-9E4C-AB8F3C59DADD}"/>
+    <hyperlink ref="F31" r:id="rId5" xr:uid="{0F5518C4-2443-1B41-9763-F657647A026E}"/>
+    <hyperlink ref="F34" r:id="rId6" xr:uid="{AE662536-DC07-9244-A2EF-193B40857D04}"/>
+    <hyperlink ref="G34" r:id="rId7" xr:uid="{6CBE5D7B-CCB9-6C4C-8F9C-E09C6CD426E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E55AF28-CF07-394B-82A1-2CCB46060BA3}">
+  <dimension ref="A1:K207"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>14.51</v>
+      </c>
+      <c r="D2">
+        <v>15.35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>14.51</v>
+      </c>
+      <c r="D3">
+        <v>15.35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>16.46</v>
+      </c>
+      <c r="C4">
+        <v>14.51</v>
+      </c>
+      <c r="D4">
+        <v>15.35</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>16.46</v>
+      </c>
+      <c r="C5">
+        <v>14.51</v>
+      </c>
+      <c r="D5">
+        <v>15.35</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>10.18</v>
+      </c>
+      <c r="C6">
+        <v>17.62</v>
+      </c>
+      <c r="D6">
+        <v>15.3</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>10.18</v>
+      </c>
+      <c r="C7">
+        <v>17.62</v>
+      </c>
+      <c r="D7">
+        <v>15.3</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>19.16</v>
+      </c>
+      <c r="B8">
+        <v>15.35</v>
+      </c>
+      <c r="C8">
+        <v>23.27</v>
+      </c>
+      <c r="D8">
+        <v>14.3</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>19.16</v>
+      </c>
+      <c r="B9">
+        <v>15.35</v>
+      </c>
+      <c r="C9">
+        <v>23.27</v>
+      </c>
+      <c r="D9">
+        <v>14.3</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>18.16</v>
+      </c>
+      <c r="B10">
+        <v>14.66</v>
+      </c>
+      <c r="C10">
+        <v>22.27</v>
+      </c>
+      <c r="D10">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18.16</v>
+      </c>
+      <c r="B11">
+        <v>14.66</v>
+      </c>
+      <c r="C11">
+        <v>22.27</v>
+      </c>
+      <c r="D11">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>17.13</v>
+      </c>
+      <c r="B12">
+        <v>13.65</v>
+      </c>
+      <c r="C12">
+        <v>21.27</v>
+      </c>
+      <c r="D12">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>16.61</v>
+      </c>
+      <c r="B13">
+        <v>13.65</v>
+      </c>
+      <c r="C13">
+        <v>21.27</v>
+      </c>
+      <c r="D13">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>33.49</v>
+      </c>
+      <c r="B14">
+        <v>13.76</v>
+      </c>
+      <c r="C14">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="D14">
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>32.99</v>
+      </c>
+      <c r="B15">
+        <v>13.76</v>
+      </c>
+      <c r="C15">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="D15">
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>32.49</v>
+      </c>
+      <c r="B16">
+        <v>16.3</v>
+      </c>
+      <c r="C16">
+        <v>19.25</v>
+      </c>
+      <c r="D16">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>31.98</v>
+      </c>
+      <c r="B17">
+        <v>16.3</v>
+      </c>
+      <c r="C17">
+        <v>19.25</v>
+      </c>
+      <c r="D17">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>31.48</v>
+      </c>
+      <c r="B18">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="C18">
+        <v>18.25</v>
+      </c>
+      <c r="D18">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>30.98</v>
+      </c>
+      <c r="B19">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="C19">
+        <v>18.25</v>
+      </c>
+      <c r="D19">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>30.48</v>
+      </c>
+      <c r="B20">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="C20">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="D20">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>29.98</v>
+      </c>
+      <c r="B21">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="C21">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="D21">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>29.48</v>
+      </c>
+      <c r="B22">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="C22">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D22">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>28.98</v>
+      </c>
+      <c r="B23">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="C23">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D23">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>28.47</v>
+      </c>
+      <c r="B24">
+        <v>17.43</v>
+      </c>
+      <c r="C24">
+        <v>30.92</v>
+      </c>
+      <c r="D24">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>27.97</v>
+      </c>
+      <c r="B25">
+        <v>17.43</v>
+      </c>
+      <c r="C25">
+        <v>30.92</v>
+      </c>
+      <c r="D25">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>27.47</v>
+      </c>
+      <c r="B26">
+        <v>16.43</v>
+      </c>
+      <c r="C26">
+        <v>29.92</v>
+      </c>
+      <c r="D26">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26.96</v>
+      </c>
+      <c r="B27">
+        <v>16.43</v>
+      </c>
+      <c r="C27">
+        <v>29.92</v>
+      </c>
+      <c r="D27">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26.46</v>
+      </c>
+      <c r="B28">
+        <v>20.28</v>
+      </c>
+      <c r="C28">
+        <v>28.92</v>
+      </c>
+      <c r="D28">
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25.96</v>
+      </c>
+      <c r="B29">
+        <v>20.28</v>
+      </c>
+      <c r="C29">
+        <v>28.92</v>
+      </c>
+      <c r="D29">
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>37.92</v>
+      </c>
+      <c r="B30">
+        <v>29.28</v>
+      </c>
+      <c r="C30">
+        <v>27.91</v>
+      </c>
+      <c r="D30">
+        <v>37.909999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>37.42</v>
+      </c>
+      <c r="B31">
+        <v>29.28</v>
+      </c>
+      <c r="C31">
+        <v>27.91</v>
+      </c>
+      <c r="D31">
+        <v>37.909999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>36.92</v>
+      </c>
+      <c r="B32">
+        <v>28.27</v>
+      </c>
+      <c r="C32">
+        <v>26.91</v>
+      </c>
+      <c r="D32">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="B33">
+        <v>28.27</v>
+      </c>
+      <c r="C33">
+        <v>26.91</v>
+      </c>
+      <c r="D33">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="B34">
+        <v>27.27</v>
+      </c>
+      <c r="C34">
+        <v>25.9</v>
+      </c>
+      <c r="D34">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="B35">
+        <v>27.27</v>
+      </c>
+      <c r="C35">
+        <v>25.9</v>
+      </c>
+      <c r="D35">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="B36">
+        <v>31.69</v>
+      </c>
+      <c r="C36">
+        <v>24.9</v>
+      </c>
+      <c r="D36">
+        <v>34.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34.4</v>
+      </c>
+      <c r="B37">
+        <v>31.69</v>
+      </c>
+      <c r="C37">
+        <v>24.9</v>
+      </c>
+      <c r="D37">
+        <v>34.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>33.9</v>
+      </c>
+      <c r="B38">
+        <v>30.68</v>
+      </c>
+      <c r="C38">
+        <v>23.9</v>
+      </c>
+      <c r="D38">
+        <v>33.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>33.4</v>
+      </c>
+      <c r="B39">
+        <v>30.68</v>
+      </c>
+      <c r="C39">
+        <v>23.9</v>
+      </c>
+      <c r="D39">
+        <v>33.89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>32.9</v>
+      </c>
+      <c r="B40">
+        <v>29.68</v>
+      </c>
+      <c r="C40">
+        <v>22.89</v>
+      </c>
+      <c r="D40">
+        <v>32.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>32.39</v>
+      </c>
+      <c r="B41">
+        <v>29.68</v>
+      </c>
+      <c r="C41">
+        <v>22.89</v>
+      </c>
+      <c r="D41">
+        <v>32.89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42.05</v>
+      </c>
+      <c r="B42">
+        <v>28.68</v>
+      </c>
+      <c r="C42">
+        <v>40.71</v>
+      </c>
+      <c r="D42">
+        <v>47.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41.55</v>
+      </c>
+      <c r="B43">
+        <v>28.68</v>
+      </c>
+      <c r="C43">
+        <v>40.71</v>
+      </c>
+      <c r="D43">
+        <v>47.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41.05</v>
+      </c>
+      <c r="B44">
+        <v>27.68</v>
+      </c>
+      <c r="C44">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D44">
+        <v>46.94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="B45">
+        <v>27.68</v>
+      </c>
+      <c r="C45">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D45">
+        <v>46.94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>40.04</v>
+      </c>
+      <c r="B46">
+        <v>26.67</v>
+      </c>
+      <c r="C46">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D46">
+        <v>45.94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>39.54</v>
+      </c>
+      <c r="B47">
+        <v>26.67</v>
+      </c>
+      <c r="C47">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D47">
+        <v>45.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>39.04</v>
+      </c>
+      <c r="B48">
+        <v>25.67</v>
+      </c>
+      <c r="C48">
+        <v>37.69</v>
+      </c>
+      <c r="D48">
+        <v>44.93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>38.54</v>
+      </c>
+      <c r="B49">
+        <v>25.67</v>
+      </c>
+      <c r="C49">
+        <v>37.69</v>
+      </c>
+      <c r="D49">
+        <v>44.93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>38.04</v>
+      </c>
+      <c r="B50">
+        <v>24.67</v>
+      </c>
+      <c r="C50">
+        <v>43.94</v>
+      </c>
+      <c r="D50">
+        <v>43.93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>37.53</v>
+      </c>
+      <c r="B51">
+        <v>24.67</v>
+      </c>
+      <c r="C51">
+        <v>43.94</v>
+      </c>
+      <c r="D51">
+        <v>43.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>37.03</v>
+      </c>
+      <c r="B52">
+        <v>23.66</v>
+      </c>
+      <c r="C52">
+        <v>42.93</v>
+      </c>
+      <c r="D52">
+        <v>42.93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>47.85</v>
+      </c>
+      <c r="B53">
+        <v>23.66</v>
+      </c>
+      <c r="C53">
+        <v>42.93</v>
+      </c>
+      <c r="D53">
+        <v>42.93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>47.35</v>
+      </c>
+      <c r="B54">
+        <v>22.66</v>
+      </c>
+      <c r="C54">
+        <v>41.93</v>
+      </c>
+      <c r="D54">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>46.85</v>
+      </c>
+      <c r="B55">
+        <v>22.66</v>
+      </c>
+      <c r="C55">
+        <v>41.93</v>
+      </c>
+      <c r="D55">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>46.34</v>
+      </c>
+      <c r="B56">
+        <v>21.66</v>
+      </c>
+      <c r="C56">
+        <v>40.92</v>
+      </c>
+      <c r="D56">
+        <v>40.92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>45.84</v>
+      </c>
+      <c r="B57">
+        <v>21.66</v>
+      </c>
+      <c r="C57">
+        <v>40.92</v>
+      </c>
+      <c r="D57">
+        <v>40.92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>45.34</v>
+      </c>
+      <c r="B58">
+        <v>20.65</v>
+      </c>
+      <c r="C58">
+        <v>39.92</v>
+      </c>
+      <c r="D58">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>44.84</v>
+      </c>
+      <c r="B59">
+        <v>20.65</v>
+      </c>
+      <c r="C59">
+        <v>39.92</v>
+      </c>
+      <c r="D59">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>44.34</v>
+      </c>
+      <c r="B60">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="C60">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="D60">
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>43.84</v>
+      </c>
+      <c r="B61">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="C61">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="D61">
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>43.34</v>
+      </c>
+      <c r="B62">
+        <v>18.64</v>
+      </c>
+      <c r="C62">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="D62">
+        <v>37.909999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>42.83</v>
+      </c>
+      <c r="B63">
+        <v>18.64</v>
+      </c>
+      <c r="C63">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="D63">
+        <v>37.909999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>42.33</v>
+      </c>
+      <c r="B64">
+        <v>17.64</v>
+      </c>
+      <c r="C64">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="D64">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>56.05</v>
+      </c>
+      <c r="B65">
+        <v>17.64</v>
+      </c>
+      <c r="C65">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="D65">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>55.55</v>
+      </c>
+      <c r="B66">
+        <v>16.64</v>
+      </c>
+      <c r="C66">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="D66">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>55.05</v>
+      </c>
+      <c r="B67">
+        <v>16.64</v>
+      </c>
+      <c r="C67">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="D67">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>54.55</v>
+      </c>
+      <c r="B68">
+        <v>15.63</v>
+      </c>
+      <c r="C68">
+        <v>34.9</v>
+      </c>
+      <c r="D68">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>54.05</v>
+      </c>
+      <c r="B69">
+        <v>15.63</v>
+      </c>
+      <c r="C69">
+        <v>34.9</v>
+      </c>
+      <c r="D69">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>53.54</v>
+      </c>
+      <c r="B70">
+        <v>39.21</v>
+      </c>
+      <c r="C70">
+        <v>33.9</v>
+      </c>
+      <c r="D70">
+        <v>47.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>53.04</v>
+      </c>
+      <c r="B71">
+        <v>39.21</v>
+      </c>
+      <c r="C71">
+        <v>33.9</v>
+      </c>
+      <c r="D71">
+        <v>47.82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>52.54</v>
+      </c>
+      <c r="B72">
+        <v>38.21</v>
+      </c>
+      <c r="C72">
+        <v>52.37</v>
+      </c>
+      <c r="D72">
+        <v>52.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>52.04</v>
+      </c>
+      <c r="B73">
+        <v>38.21</v>
+      </c>
+      <c r="C73">
+        <v>52.37</v>
+      </c>
+      <c r="D73">
+        <v>52.35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>51.53</v>
+      </c>
+      <c r="B74">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C74">
+        <v>51.37</v>
+      </c>
+      <c r="D74">
+        <v>51.35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>51.03</v>
+      </c>
+      <c r="B75">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C75">
+        <v>51.37</v>
+      </c>
+      <c r="D75">
+        <v>51.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>50.53</v>
+      </c>
+      <c r="B76">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C76">
+        <v>50.36</v>
+      </c>
+      <c r="D76">
+        <v>50.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>50.03</v>
+      </c>
+      <c r="B77">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C77">
+        <v>50.36</v>
+      </c>
+      <c r="D77">
+        <v>50.34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>53.99</v>
+      </c>
+      <c r="B78">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C78">
+        <v>49.36</v>
+      </c>
+      <c r="D78">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>53.48</v>
+      </c>
+      <c r="B79">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C79">
+        <v>49.36</v>
+      </c>
+      <c r="D79">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>52.98</v>
+      </c>
+      <c r="B80">
+        <v>39.72</v>
+      </c>
+      <c r="C80">
+        <v>48.36</v>
+      </c>
+      <c r="D80">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>52.48</v>
+      </c>
+      <c r="B81">
+        <v>39.72</v>
+      </c>
+      <c r="C81">
+        <v>48.36</v>
+      </c>
+      <c r="D81">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>51.98</v>
+      </c>
+      <c r="B82">
+        <v>38.72</v>
+      </c>
+      <c r="C82">
+        <v>47.35</v>
+      </c>
+      <c r="D82">
+        <v>47.33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>57.57</v>
+      </c>
+      <c r="B83">
+        <v>38.72</v>
+      </c>
+      <c r="C83">
+        <v>47.35</v>
+      </c>
+      <c r="D83">
+        <v>47.33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>57.07</v>
+      </c>
+      <c r="B84">
+        <v>37.72</v>
+      </c>
+      <c r="C84">
+        <v>46.35</v>
+      </c>
+      <c r="D84">
+        <v>46.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>56.57</v>
+      </c>
+      <c r="B85">
+        <v>37.72</v>
+      </c>
+      <c r="C85">
+        <v>46.35</v>
+      </c>
+      <c r="D85">
+        <v>46.33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>56.07</v>
+      </c>
+      <c r="B86">
+        <v>36.71</v>
+      </c>
+      <c r="C86">
+        <v>45.34</v>
+      </c>
+      <c r="D86">
+        <v>63.06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>55.57</v>
+      </c>
+      <c r="B87">
+        <v>36.71</v>
+      </c>
+      <c r="C87">
+        <v>45.34</v>
+      </c>
+      <c r="D87">
+        <v>63.06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>55.07</v>
+      </c>
+      <c r="B88">
+        <v>35.71</v>
+      </c>
+      <c r="C88">
+        <v>44.34</v>
+      </c>
+      <c r="D88">
+        <v>62.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>61.75</v>
+      </c>
+      <c r="B89">
+        <v>35.71</v>
+      </c>
+      <c r="C89">
+        <v>44.34</v>
+      </c>
+      <c r="D89">
+        <v>62.05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>61.25</v>
+      </c>
+      <c r="B90">
+        <v>34.71</v>
+      </c>
+      <c r="C90">
+        <v>47.8</v>
+      </c>
+      <c r="D90">
+        <v>61.05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>60.74</v>
+      </c>
+      <c r="B91">
+        <v>34.71</v>
+      </c>
+      <c r="C91">
+        <v>47.8</v>
+      </c>
+      <c r="D91">
+        <v>61.05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>60.24</v>
+      </c>
+      <c r="B92">
+        <v>33.68</v>
+      </c>
+      <c r="C92">
+        <v>60.06</v>
+      </c>
+      <c r="D92">
+        <v>60.05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>59.74</v>
+      </c>
+      <c r="B93">
+        <v>33.68</v>
+      </c>
+      <c r="C93">
+        <v>60.06</v>
+      </c>
+      <c r="D93">
+        <v>60.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>59.24</v>
+      </c>
+      <c r="B94">
+        <v>32.93</v>
+      </c>
+      <c r="C94">
+        <v>59.06</v>
+      </c>
+      <c r="D94">
+        <v>59.04</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>58.74</v>
+      </c>
+      <c r="B95">
+        <v>32.93</v>
+      </c>
+      <c r="C95">
+        <v>59.06</v>
+      </c>
+      <c r="D95">
+        <v>59.04</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>58.23</v>
+      </c>
+      <c r="B96">
+        <v>31.92</v>
+      </c>
+      <c r="C96">
+        <v>58.05</v>
+      </c>
+      <c r="D96">
+        <v>58.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>57.73</v>
+      </c>
+      <c r="B97">
+        <v>31.92</v>
+      </c>
+      <c r="C97">
+        <v>58.05</v>
+      </c>
+      <c r="D97">
+        <v>58.04</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>57.23</v>
+      </c>
+      <c r="B98">
+        <v>30.92</v>
+      </c>
+      <c r="C98">
+        <v>57.05</v>
+      </c>
+      <c r="D98">
+        <v>57.04</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>56.73</v>
+      </c>
+      <c r="B99">
+        <v>30.92</v>
+      </c>
+      <c r="C99">
+        <v>57.05</v>
+      </c>
+      <c r="D99">
+        <v>57.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>56.23</v>
+      </c>
+      <c r="B100">
+        <v>29.91</v>
+      </c>
+      <c r="C100">
+        <v>56.05</v>
+      </c>
+      <c r="D100">
+        <v>56.04</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>55.73</v>
+      </c>
+      <c r="B101">
+        <v>29.91</v>
+      </c>
+      <c r="C101">
+        <v>56.05</v>
+      </c>
+      <c r="D101">
+        <v>56.04</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>55.23</v>
+      </c>
+      <c r="B102">
+        <v>28.91</v>
+      </c>
+      <c r="C102">
+        <v>55.05</v>
+      </c>
+      <c r="D102">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>54.73</v>
+      </c>
+      <c r="B103">
+        <v>28.91</v>
+      </c>
+      <c r="C103">
+        <v>55.05</v>
+      </c>
+      <c r="D103">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>54.23</v>
+      </c>
+      <c r="B104">
+        <v>27.91</v>
+      </c>
+      <c r="C104">
+        <v>54.05</v>
+      </c>
+      <c r="D104">
+        <v>54.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>53.73</v>
+      </c>
+      <c r="B105">
+        <v>27.91</v>
+      </c>
+      <c r="C105">
+        <v>54.05</v>
+      </c>
+      <c r="D105">
+        <v>54.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>53.22</v>
+      </c>
+      <c r="B106">
+        <v>26.9</v>
+      </c>
+      <c r="C106">
+        <v>53.04</v>
+      </c>
+      <c r="D106">
+        <v>53.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>52.72</v>
+      </c>
+      <c r="B107">
+        <v>26.9</v>
+      </c>
+      <c r="C107">
+        <v>53.04</v>
+      </c>
+      <c r="D107">
+        <v>53.03</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>52.22</v>
+      </c>
+      <c r="B108">
+        <v>25.9</v>
+      </c>
+      <c r="C108">
+        <v>52.04</v>
+      </c>
+      <c r="D108">
+        <v>52.02</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>51.72</v>
+      </c>
+      <c r="B109">
+        <v>25.9</v>
+      </c>
+      <c r="C109">
+        <v>52.04</v>
+      </c>
+      <c r="D109">
+        <v>52.02</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>51.22</v>
+      </c>
+      <c r="B110">
+        <v>24.9</v>
+      </c>
+      <c r="C110">
+        <v>51.03</v>
+      </c>
+      <c r="D110">
+        <v>51.02</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>50.72</v>
+      </c>
+      <c r="B111">
+        <v>24.9</v>
+      </c>
+      <c r="C111">
+        <v>51.03</v>
+      </c>
+      <c r="D111">
+        <v>51.02</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>50.21</v>
+      </c>
+      <c r="B112">
+        <v>23.9</v>
+      </c>
+      <c r="C112">
+        <v>50.03</v>
+      </c>
+      <c r="D112">
+        <v>50.02</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>49.71</v>
+      </c>
+      <c r="B113">
+        <v>23.9</v>
+      </c>
+      <c r="C113">
+        <v>50.03</v>
+      </c>
+      <c r="D113">
+        <v>50.02</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>49.21</v>
+      </c>
+      <c r="B114">
+        <v>22.89</v>
+      </c>
+      <c r="C114">
+        <v>49.03</v>
+      </c>
+      <c r="D114">
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>48.71</v>
+      </c>
+      <c r="B115">
+        <v>22.89</v>
+      </c>
+      <c r="C115">
+        <v>49.03</v>
+      </c>
+      <c r="D115">
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>48.21</v>
+      </c>
+      <c r="B116">
+        <v>21.89</v>
+      </c>
+      <c r="C116">
+        <v>48.02</v>
+      </c>
+      <c r="D116">
+        <v>48.01</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>47.71</v>
+      </c>
+      <c r="B117">
+        <v>21.89</v>
+      </c>
+      <c r="C117">
+        <v>48.02</v>
+      </c>
+      <c r="D117">
+        <v>48.01</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>47.2</v>
+      </c>
+      <c r="B118">
+        <v>48.63</v>
+      </c>
+      <c r="C118">
+        <v>47.02</v>
+      </c>
+      <c r="D118">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>46.7</v>
+      </c>
+      <c r="B119">
+        <v>48.63</v>
+      </c>
+      <c r="C119">
+        <v>47.02</v>
+      </c>
+      <c r="D119">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>46.2</v>
+      </c>
+      <c r="B120">
+        <v>47.63</v>
+      </c>
+      <c r="C120">
+        <v>46.01</v>
+      </c>
+      <c r="D120">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>45.7</v>
+      </c>
+      <c r="B121">
+        <v>47.63</v>
+      </c>
+      <c r="C121">
+        <v>46.01</v>
+      </c>
+      <c r="D121">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>45.2</v>
+      </c>
+      <c r="B122">
+        <v>46.62</v>
+      </c>
+      <c r="C122">
+        <v>45.01</v>
+      </c>
+      <c r="D122">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>44.7</v>
+      </c>
+      <c r="B123">
+        <v>46.62</v>
+      </c>
+      <c r="C123">
+        <v>45.01</v>
+      </c>
+      <c r="D123">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>44.2</v>
+      </c>
+      <c r="B124">
+        <v>45.61</v>
+      </c>
+      <c r="C124">
+        <v>44.01</v>
+      </c>
+      <c r="D124">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>43.69</v>
+      </c>
+      <c r="B125">
+        <v>45.61</v>
+      </c>
+      <c r="C125">
+        <v>44.01</v>
+      </c>
+      <c r="D125">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>43.19</v>
+      </c>
+      <c r="B126">
+        <v>44.61</v>
+      </c>
+      <c r="C126">
+        <v>43</v>
+      </c>
+      <c r="D126">
+        <v>42.99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>42.69</v>
+      </c>
+      <c r="B127">
+        <v>44.61</v>
+      </c>
+      <c r="C127">
+        <v>43</v>
+      </c>
+      <c r="D127">
+        <v>42.99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>42.19</v>
+      </c>
+      <c r="B128">
+        <v>43.6</v>
+      </c>
+      <c r="C128">
+        <v>42</v>
+      </c>
+      <c r="D128">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>41.69</v>
+      </c>
+      <c r="B129">
+        <v>43.6</v>
+      </c>
+      <c r="C129">
+        <v>42</v>
+      </c>
+      <c r="D129">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>41.18</v>
+      </c>
+      <c r="B130">
+        <v>42.6</v>
+      </c>
+      <c r="C130">
+        <v>41</v>
+      </c>
+      <c r="D130">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>40.68</v>
+      </c>
+      <c r="B131">
+        <v>42.6</v>
+      </c>
+      <c r="C131">
+        <v>41</v>
+      </c>
+      <c r="D131">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>40.18</v>
+      </c>
+      <c r="B132">
+        <v>41.6</v>
+      </c>
+      <c r="C132">
+        <v>40</v>
+      </c>
+      <c r="D132">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>39.68</v>
+      </c>
+      <c r="B133">
+        <v>41.6</v>
+      </c>
+      <c r="C133">
+        <v>40</v>
+      </c>
+      <c r="D133">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>39.18</v>
+      </c>
+      <c r="B134">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="C134">
+        <v>38.99</v>
+      </c>
+      <c r="D134">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>38.67</v>
+      </c>
+      <c r="B135">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="C135">
+        <v>38.99</v>
+      </c>
+      <c r="D135">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>38.17</v>
+      </c>
+      <c r="B136">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="C136">
+        <v>37.99</v>
+      </c>
+      <c r="D136">
+        <v>37.979999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>37.67</v>
+      </c>
+      <c r="B137">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="C137">
+        <v>37.99</v>
+      </c>
+      <c r="D137">
+        <v>37.979999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>37.17</v>
+      </c>
+      <c r="B138">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="C138">
+        <v>36.99</v>
+      </c>
+      <c r="D138">
+        <v>36.97</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>36.67</v>
+      </c>
+      <c r="B139">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="C139">
+        <v>36.99</v>
+      </c>
+      <c r="D139">
+        <v>36.97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="B140">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="C140">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="D140">
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="B141">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="C141">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="D141">
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="B142">
+        <v>36.58</v>
+      </c>
+      <c r="C142">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="D142">
+        <v>34.97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="B143">
+        <v>36.58</v>
+      </c>
+      <c r="C143">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="D143">
+        <v>34.97</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>34.159999999999997</v>
+      </c>
+      <c r="B144">
+        <v>35.58</v>
+      </c>
+      <c r="C144">
+        <v>33.97</v>
+      </c>
+      <c r="D144">
+        <v>33.96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="B145">
+        <v>35.58</v>
+      </c>
+      <c r="C145">
+        <v>33.97</v>
+      </c>
+      <c r="D145">
+        <v>33.96</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="B146">
+        <v>34.58</v>
+      </c>
+      <c r="C146">
+        <v>32.97</v>
+      </c>
+      <c r="D146">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>32.65</v>
+      </c>
+      <c r="B147">
+        <v>34.58</v>
+      </c>
+      <c r="C147">
+        <v>32.97</v>
+      </c>
+      <c r="D147">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>32.15</v>
+      </c>
+      <c r="B148">
+        <v>33.58</v>
+      </c>
+      <c r="C148">
+        <v>31.97</v>
+      </c>
+      <c r="D148">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>31.65</v>
+      </c>
+      <c r="B149">
+        <v>33.58</v>
+      </c>
+      <c r="C149">
+        <v>31.97</v>
+      </c>
+      <c r="D149">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>31.14</v>
+      </c>
+      <c r="B150">
+        <v>32.57</v>
+      </c>
+      <c r="C150">
+        <v>30.96</v>
+      </c>
+      <c r="D150">
+        <v>30.95</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>30.64</v>
+      </c>
+      <c r="B151">
+        <v>32.57</v>
+      </c>
+      <c r="C151">
+        <v>30.96</v>
+      </c>
+      <c r="D151">
+        <v>30.95</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>30.13</v>
+      </c>
+      <c r="B152">
+        <v>31.57</v>
+      </c>
+      <c r="C152">
+        <v>29.95</v>
+      </c>
+      <c r="D152">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>29.63</v>
+      </c>
+      <c r="B153">
+        <v>31.57</v>
+      </c>
+      <c r="C153">
+        <v>29.95</v>
+      </c>
+      <c r="D153">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>29.13</v>
+      </c>
+      <c r="B154">
+        <v>30.57</v>
+      </c>
+      <c r="C154">
+        <v>28.95</v>
+      </c>
+      <c r="D154">
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>28.62</v>
+      </c>
+      <c r="B155">
+        <v>30.57</v>
+      </c>
+      <c r="C155">
+        <v>28.95</v>
+      </c>
+      <c r="D155">
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>28.12</v>
+      </c>
+      <c r="B156">
+        <v>29.56</v>
+      </c>
+      <c r="C156">
+        <v>27.95</v>
+      </c>
+      <c r="D156">
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>27.62</v>
+      </c>
+      <c r="B157">
+        <v>29.56</v>
+      </c>
+      <c r="C157">
+        <v>27.95</v>
+      </c>
+      <c r="D157">
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>27.12</v>
+      </c>
+      <c r="B158">
+        <v>28.56</v>
+      </c>
+      <c r="C158">
+        <v>26.95</v>
+      </c>
+      <c r="D158">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>26.62</v>
+      </c>
+      <c r="B159">
+        <v>28.56</v>
+      </c>
+      <c r="C159">
+        <v>26.95</v>
+      </c>
+      <c r="D159">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>26.12</v>
+      </c>
+      <c r="B160">
+        <v>27.56</v>
+      </c>
+      <c r="C160">
+        <v>25.95</v>
+      </c>
+      <c r="D160">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>25.62</v>
+      </c>
+      <c r="B161">
+        <v>27.56</v>
+      </c>
+      <c r="C161">
+        <v>25.95</v>
+      </c>
+      <c r="D161">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>25.12</v>
+      </c>
+      <c r="B162">
+        <v>26.55</v>
+      </c>
+      <c r="C162">
+        <v>24.94</v>
+      </c>
+      <c r="D162">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>24.61</v>
+      </c>
+      <c r="B163">
+        <v>26.55</v>
+      </c>
+      <c r="C163">
+        <v>24.94</v>
+      </c>
+      <c r="D163">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>24.11</v>
+      </c>
+      <c r="B164">
+        <v>25.55</v>
+      </c>
+      <c r="C164">
+        <v>23.93</v>
+      </c>
+      <c r="D164">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>23.61</v>
+      </c>
+      <c r="B165">
+        <v>25.55</v>
+      </c>
+      <c r="C165">
+        <v>23.93</v>
+      </c>
+      <c r="D165">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>23.11</v>
+      </c>
+      <c r="B166">
+        <v>24.54</v>
+      </c>
+      <c r="C166">
+        <v>22.93</v>
+      </c>
+      <c r="D166">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>22.61</v>
+      </c>
+      <c r="B167">
+        <v>24.54</v>
+      </c>
+      <c r="C167">
+        <v>22.93</v>
+      </c>
+      <c r="D167">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>22.11</v>
+      </c>
+      <c r="B168">
+        <v>23.54</v>
+      </c>
+      <c r="C168">
+        <v>21.93</v>
+      </c>
+      <c r="D168">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>21.6</v>
+      </c>
+      <c r="B169">
+        <v>23.54</v>
+      </c>
+      <c r="C169">
+        <v>21.93</v>
+      </c>
+      <c r="D169">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>21.1</v>
+      </c>
+      <c r="B170">
+        <v>22.53</v>
+      </c>
+      <c r="C170">
+        <v>20.92</v>
+      </c>
+      <c r="D170">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>20.6</v>
+      </c>
+      <c r="B171">
+        <v>22.53</v>
+      </c>
+      <c r="C171">
+        <v>20.92</v>
+      </c>
+      <c r="D171">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B172">
+        <v>21.53</v>
+      </c>
+      <c r="C172">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D172">
+        <v>19.920000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>19.59</v>
+      </c>
+      <c r="B173">
+        <v>21.53</v>
+      </c>
+      <c r="C173">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D173">
+        <v>19.920000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>19.09</v>
+      </c>
+      <c r="B174">
+        <v>20.52</v>
+      </c>
+      <c r="C174">
+        <v>18.91</v>
+      </c>
+      <c r="D174">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>18.59</v>
+      </c>
+      <c r="B175">
+        <v>20.52</v>
+      </c>
+      <c r="C175">
+        <v>18.91</v>
+      </c>
+      <c r="D175">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>18.09</v>
+      </c>
+      <c r="B176">
+        <v>19.52</v>
+      </c>
+      <c r="C176">
+        <v>17.91</v>
+      </c>
+      <c r="D176">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>17.59</v>
+      </c>
+      <c r="B177">
+        <v>19.52</v>
+      </c>
+      <c r="C177">
+        <v>17.91</v>
+      </c>
+      <c r="D177">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>17.09</v>
+      </c>
+      <c r="B178">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="C178">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D178">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="B179">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="C179">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D179">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="B180">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="C180">
+        <v>15.9</v>
+      </c>
+      <c r="D180">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>15.58</v>
+      </c>
+      <c r="B181">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="C181">
+        <v>15.9</v>
+      </c>
+      <c r="D181">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>15.08</v>
+      </c>
+      <c r="B182">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="C182">
+        <v>14.9</v>
+      </c>
+      <c r="D182">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>14.58</v>
+      </c>
+      <c r="B183">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="C183">
+        <v>14.9</v>
+      </c>
+      <c r="D183">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>14.08</v>
+      </c>
+      <c r="B184">
+        <v>15.5</v>
+      </c>
+      <c r="C184">
+        <v>13.9</v>
+      </c>
+      <c r="D184">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>13.58</v>
+      </c>
+      <c r="B185">
+        <v>15.5</v>
+      </c>
+      <c r="C185">
+        <v>13.9</v>
+      </c>
+      <c r="D185">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>13.08</v>
+      </c>
+      <c r="B186">
+        <v>14.49</v>
+      </c>
+      <c r="C186">
+        <v>12.89</v>
+      </c>
+      <c r="D186">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>12.58</v>
+      </c>
+      <c r="B187">
+        <v>14.49</v>
+      </c>
+      <c r="C187">
+        <v>12.89</v>
+      </c>
+      <c r="D187">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>12.07</v>
+      </c>
+      <c r="B188">
+        <v>13.49</v>
+      </c>
+      <c r="C188">
+        <v>11.88</v>
+      </c>
+      <c r="D188">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>11.57</v>
+      </c>
+      <c r="B189">
+        <v>13.49</v>
+      </c>
+      <c r="C189">
+        <v>11.88</v>
+      </c>
+      <c r="D189">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>11.07</v>
+      </c>
+      <c r="B190">
+        <v>12.49</v>
+      </c>
+      <c r="C190">
+        <v>10.87</v>
+      </c>
+      <c r="D190">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>10.57</v>
+      </c>
+      <c r="B191">
+        <v>12.49</v>
+      </c>
+      <c r="C191">
+        <v>10.87</v>
+      </c>
+      <c r="D191">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>10.07</v>
+      </c>
+      <c r="B192">
+        <v>11.49</v>
+      </c>
+      <c r="C192">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="D192">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>9.57</v>
+      </c>
+      <c r="B193">
+        <v>11.49</v>
+      </c>
+      <c r="C193">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="D193">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>9.07</v>
+      </c>
+      <c r="B194">
+        <v>10.48</v>
+      </c>
+      <c r="C194">
+        <v>8.86</v>
+      </c>
+      <c r="D194">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>8.56</v>
+      </c>
+      <c r="B195">
+        <v>10.48</v>
+      </c>
+      <c r="C195">
+        <v>8.86</v>
+      </c>
+      <c r="D195">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>8.06</v>
+      </c>
+      <c r="B196">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C196">
+        <v>7.86</v>
+      </c>
+      <c r="D196">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>7.56</v>
+      </c>
+      <c r="B197">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C197">
+        <v>7.86</v>
+      </c>
+      <c r="D197">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>7.06</v>
+      </c>
+      <c r="B198">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C198">
+        <v>6.85</v>
+      </c>
+      <c r="D198">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>6.55</v>
+      </c>
+      <c r="B199">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C199">
+        <v>6.85</v>
+      </c>
+      <c r="D199">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>6.05</v>
+      </c>
+      <c r="B200">
+        <v>7.45</v>
+      </c>
+      <c r="C200">
+        <v>5.77</v>
+      </c>
+      <c r="D200">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>5.55</v>
+      </c>
+      <c r="B201">
+        <v>7.45</v>
+      </c>
+      <c r="C201">
+        <v>5.77</v>
+      </c>
+      <c r="D201">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>5.05</v>
+      </c>
+      <c r="B202">
+        <v>6.44</v>
+      </c>
+      <c r="C202">
+        <v>5.01</v>
+      </c>
+      <c r="D202">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>4.55</v>
+      </c>
+      <c r="B203">
+        <v>6.44</v>
+      </c>
+      <c r="C203">
+        <v>5.01</v>
+      </c>
+      <c r="D203">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>4.04</v>
+      </c>
+      <c r="B204">
+        <v>5.43</v>
+      </c>
+      <c r="C204">
+        <v>4</v>
+      </c>
+      <c r="D204">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>3.54</v>
+      </c>
+      <c r="B205">
+        <v>5.43</v>
+      </c>
+      <c r="C205">
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>3.03</v>
+      </c>
+      <c r="B206">
+        <v>4.43</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="B207">
+        <v>4.43</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>2.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{3EF47C5D-3142-8842-85CF-9C06E5CD9778}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{18D5C3A3-9FB4-D14A-A4F0-D1309E9D7BC5}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{A1C24130-F856-0446-B721-8A2FBABC88D2}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{7D7A480D-1BE2-DD4B-84BB-86BC9903519E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>